--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N2">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q2">
-        <v>42.76743931371568</v>
+        <v>48.21782294555555</v>
       </c>
       <c r="R2">
-        <v>42.76743931371568</v>
+        <v>433.9604065099999</v>
       </c>
       <c r="S2">
-        <v>0.006589614992010482</v>
+        <v>0.005090363801609236</v>
       </c>
       <c r="T2">
-        <v>0.006589614992010482</v>
+        <v>0.005090363801609236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N3">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q3">
-        <v>76.09194189558822</v>
+        <v>99.8061060304</v>
       </c>
       <c r="R3">
-        <v>76.09194189558822</v>
+        <v>898.2549542736</v>
       </c>
       <c r="S3">
-        <v>0.01172426053868398</v>
+        <v>0.01053654765563302</v>
       </c>
       <c r="T3">
-        <v>0.01172426053868398</v>
+        <v>0.01053654765563302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N4">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q4">
-        <v>7.434629795210098</v>
+        <v>9.394668461366665</v>
       </c>
       <c r="R4">
-        <v>7.434629795210098</v>
+        <v>84.5520161523</v>
       </c>
       <c r="S4">
-        <v>0.001145529139567927</v>
+        <v>0.0009917967536165753</v>
       </c>
       <c r="T4">
-        <v>0.001145529139567927</v>
+        <v>0.0009917967536165753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N5">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O5">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P5">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q5">
-        <v>11.91710807755833</v>
+        <v>13.15663700492222</v>
       </c>
       <c r="R5">
-        <v>11.91710807755833</v>
+        <v>118.4097330443</v>
       </c>
       <c r="S5">
-        <v>0.001836190225775407</v>
+        <v>0.001388948415120051</v>
       </c>
       <c r="T5">
-        <v>0.001836190225775407</v>
+        <v>0.001388948415120052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N6">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q6">
-        <v>16.03922524398376</v>
+        <v>21.41008391756667</v>
       </c>
       <c r="R6">
-        <v>16.03922524398376</v>
+        <v>192.6907552581</v>
       </c>
       <c r="S6">
-        <v>0.00247132680431705</v>
+        <v>0.002260266214973172</v>
       </c>
       <c r="T6">
-        <v>0.00247132680431705</v>
+        <v>0.002260266214973172</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N7">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q7">
-        <v>240.5899720774633</v>
+        <v>262.3222213007</v>
       </c>
       <c r="R7">
-        <v>240.5899720774633</v>
+        <v>2360.8999917063</v>
       </c>
       <c r="S7">
-        <v>0.03707014757885196</v>
+        <v>0.02769340169452616</v>
       </c>
       <c r="T7">
-        <v>0.03707014757885196</v>
+        <v>0.02769340169452615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N8">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q8">
-        <v>428.0583188928127</v>
+        <v>542.980952558352</v>
       </c>
       <c r="R8">
-        <v>428.0583188928127</v>
+        <v>4886.828573025167</v>
       </c>
       <c r="S8">
-        <v>0.06595530527183704</v>
+        <v>0.05732259187618723</v>
       </c>
       <c r="T8">
-        <v>0.06595530527183704</v>
+        <v>0.05732259187618723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N9">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q9">
-        <v>41.8238127776388</v>
+        <v>51.11036020751099</v>
       </c>
       <c r="R9">
-        <v>41.8238127776388</v>
+        <v>459.993241867599</v>
       </c>
       <c r="S9">
-        <v>0.006444220840086193</v>
+        <v>0.005395729454257829</v>
       </c>
       <c r="T9">
-        <v>0.006444220840086193</v>
+        <v>0.005395729454257829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N10">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O10">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P10">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q10">
-        <v>67.04017695780934</v>
+        <v>71.576816063951</v>
       </c>
       <c r="R10">
-        <v>67.04017695780934</v>
+        <v>644.191344575559</v>
       </c>
       <c r="S10">
-        <v>0.01032956291602287</v>
+        <v>0.007556376693692317</v>
       </c>
       <c r="T10">
-        <v>0.01032956291602287</v>
+        <v>0.007556376693692318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N11">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q11">
-        <v>90.22931500031706</v>
+        <v>116.478522430017</v>
       </c>
       <c r="R11">
-        <v>90.22931500031706</v>
+        <v>1048.306701870153</v>
       </c>
       <c r="S11">
-        <v>0.01390254961218224</v>
+        <v>0.01229665750177424</v>
       </c>
       <c r="T11">
-        <v>0.01390254961218224</v>
+        <v>0.01229665750177424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N12">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q12">
-        <v>844.9884746633365</v>
+        <v>930.7076719279444</v>
       </c>
       <c r="R12">
-        <v>844.9884746633365</v>
+        <v>8376.3690473515</v>
       </c>
       <c r="S12">
-        <v>0.1301959811031255</v>
+        <v>0.09825496784480398</v>
       </c>
       <c r="T12">
-        <v>0.1301959811031255</v>
+        <v>0.09825496784480398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N13">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q13">
-        <v>1503.405743909107</v>
+        <v>1926.47247248456</v>
       </c>
       <c r="R13">
-        <v>1503.405743909107</v>
+        <v>17338.25225236104</v>
       </c>
       <c r="S13">
-        <v>0.2316450362264489</v>
+        <v>0.2033780278675139</v>
       </c>
       <c r="T13">
-        <v>0.2316450362264489</v>
+        <v>0.2033780278675139</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N14">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q14">
-        <v>146.8915743179989</v>
+        <v>181.3373038862883</v>
       </c>
       <c r="R14">
-        <v>146.8915743179989</v>
+        <v>1632.035734976595</v>
       </c>
       <c r="S14">
-        <v>0.02263308105087973</v>
+        <v>0.01914381013482193</v>
       </c>
       <c r="T14">
-        <v>0.02263308105087973</v>
+        <v>0.01914381013482193</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N15">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O15">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P15">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q15">
-        <v>235.4552701411027</v>
+        <v>253.9513866289328</v>
       </c>
       <c r="R15">
-        <v>235.4552701411027</v>
+        <v>2285.562479660395</v>
       </c>
       <c r="S15">
-        <v>0.03627899175090657</v>
+        <v>0.02680969124889836</v>
       </c>
       <c r="T15">
-        <v>0.03627899175090657</v>
+        <v>0.02680969124889836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N16">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O16">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P16">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q16">
-        <v>316.8990402787344</v>
+        <v>413.2606605072183</v>
       </c>
       <c r="R16">
-        <v>316.8990402787344</v>
+        <v>3719.345944564965</v>
       </c>
       <c r="S16">
-        <v>0.04882786297903916</v>
+        <v>0.04362799849446479</v>
       </c>
       <c r="T16">
-        <v>0.04882786297903916</v>
+        <v>0.0436279984944648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N17">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O17">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P17">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q17">
-        <v>623.5113716222734</v>
+        <v>1070.797466791133</v>
       </c>
       <c r="R17">
-        <v>623.5113716222734</v>
+        <v>9637.177201120199</v>
       </c>
       <c r="S17">
-        <v>0.09607074793494769</v>
+        <v>0.1130442714089992</v>
       </c>
       <c r="T17">
-        <v>0.09607074793494769</v>
+        <v>0.1130442714089992</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N18">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P18">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q18">
-        <v>1109.353092494013</v>
+        <v>2216.444438570208</v>
       </c>
       <c r="R18">
-        <v>1109.353092494013</v>
+        <v>19947.99994713187</v>
       </c>
       <c r="S18">
-        <v>0.1709293305149398</v>
+        <v>0.2339904178402117</v>
       </c>
       <c r="T18">
-        <v>0.1709293305149398</v>
+        <v>0.2339904178402118</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N19">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O19">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P19">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q19">
-        <v>108.3903150504646</v>
+        <v>208.632131756194</v>
       </c>
       <c r="R19">
-        <v>108.3903150504646</v>
+        <v>1877.689185805746</v>
       </c>
       <c r="S19">
-        <v>0.01670079987267833</v>
+        <v>0.02202532977367011</v>
       </c>
       <c r="T19">
-        <v>0.01670079987267833</v>
+        <v>0.02202532977367011</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N20">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O20">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P20">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q20">
-        <v>173.7408767615015</v>
+        <v>292.1760609612874</v>
       </c>
       <c r="R20">
-        <v>173.7408767615015</v>
+        <v>2629.584548651586</v>
       </c>
       <c r="S20">
-        <v>0.02677002655769167</v>
+        <v>0.03084507664507071</v>
       </c>
       <c r="T20">
-        <v>0.02677002655769167</v>
+        <v>0.03084507664507072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N21">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O21">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P21">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q21">
-        <v>233.8376926959866</v>
+        <v>475.464511299118</v>
       </c>
       <c r="R21">
-        <v>233.8376926959866</v>
+        <v>4279.180601692063</v>
       </c>
       <c r="S21">
-        <v>0.03602975511775475</v>
+        <v>0.0501948696439424</v>
       </c>
       <c r="T21">
-        <v>0.03602975511775475</v>
+        <v>0.05019486964394241</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N22">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O22">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P22">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q22">
-        <v>47.59493276305088</v>
+        <v>66.97625519258889</v>
       </c>
       <c r="R22">
-        <v>47.59493276305088</v>
+        <v>602.7862967333</v>
       </c>
       <c r="S22">
-        <v>0.00733343607922179</v>
+        <v>0.00707069469695173</v>
       </c>
       <c r="T22">
-        <v>0.00733343607922179</v>
+        <v>0.00707069469695173</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N23">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P23">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q23">
-        <v>84.68103109388262</v>
+        <v>138.634198288432</v>
       </c>
       <c r="R23">
-        <v>84.68103109388262</v>
+        <v>1247.707784595888</v>
       </c>
       <c r="S23">
-        <v>0.01304766899747951</v>
+        <v>0.01463563598525343</v>
       </c>
       <c r="T23">
-        <v>0.01304766899747951</v>
+        <v>0.01463563598525343</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N24">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O24">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P24">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q24">
-        <v>8.27383427437794</v>
+        <v>13.04952554636767</v>
       </c>
       <c r="R24">
-        <v>8.27383427437794</v>
+        <v>117.445729917309</v>
       </c>
       <c r="S24">
-        <v>0.001274833921570932</v>
+        <v>0.001377640640151046</v>
       </c>
       <c r="T24">
-        <v>0.001274833921570932</v>
+        <v>0.001377640640151046</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N25">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O25">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P25">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q25">
-        <v>13.26228473771396</v>
+        <v>18.27503241929656</v>
       </c>
       <c r="R25">
-        <v>13.26228473771396</v>
+        <v>164.475291773669</v>
       </c>
       <c r="S25">
-        <v>0.002043455295391611</v>
+        <v>0.001929298292987264</v>
       </c>
       <c r="T25">
-        <v>0.002043455295391611</v>
+        <v>0.001929298292987264</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N26">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O26">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P26">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q26">
-        <v>17.84969732368369</v>
+        <v>29.73936101961367</v>
       </c>
       <c r="R26">
-        <v>17.84969732368369</v>
+        <v>267.654249176523</v>
       </c>
       <c r="S26">
-        <v>0.00275028467858896</v>
+        <v>0.00313958942086961</v>
       </c>
       <c r="T26">
-        <v>0.00275028467858896</v>
+        <v>0.00313958942086961</v>
       </c>
     </row>
   </sheetData>
